--- a/biology/Médecine/Georges_Parcheminey/Georges_Parcheminey.xlsx
+++ b/biology/Médecine/Georges_Parcheminey/Georges_Parcheminey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Parcheminey, né le 21 février 1888 à Ronchamp et mort le 29 août 1953 à Paris 14e[1], est un médecin neurologue et un psychanalyste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Parcheminey, né le 21 février 1888 à Ronchamp et mort le 29 août 1953 à Paris 14e, est un médecin neurologue et un psychanalyste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Parcheminey a fait ses études médicales à Paris. Blessé durant la Grande Guerre, il devient neurologue. Il s’intéresse, entre autres, à l’hystérie et exerce à Sainte-Anne dans le service de Jean Delay. Il a été analysé par Rudolph Loewenstein et a été le psychanalyste de Maurice Bouvet, de Francis Pasche et de Jean-Paul Valabrega[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Parcheminey a fait ses études médicales à Paris. Blessé durant la Grande Guerre, il devient neurologue. Il s’intéresse, entre autres, à l’hystérie et exerce à Sainte-Anne dans le service de Jean Delay. Il a été analysé par Rudolph Loewenstein et a été le psychanalyste de Maurice Bouvet, de Francis Pasche et de Jean-Paul Valabrega.
 </t>
         </is>
       </c>
